--- a/LR3/table_1_72.xlsx
+++ b/LR3/table_1_72.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaxa_\Desktop\Учеба 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaxa_\Desktop\Учеба\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -225,8 +225,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -568,69 +574,69 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>70</v>
       </c>
       <c r="D3" s="5">
         <f>72*1.1</f>
         <v>79.2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <f>C3*D3</f>
         <v>5544</v>
       </c>
-      <c r="F3" s="6">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="8">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="8">
         <v>44805</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>0</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>10</v>
       </c>
       <c r="J3" s="4">
@@ -643,14 +649,14 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="6">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
@@ -658,21 +664,21 @@
         <f t="shared" ref="D4:D38" si="0">72*1.1</f>
         <v>79.2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>5504.4000000000005</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="8">
         <v>44806</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>10</v>
       </c>
       <c r="J4" s="4">
@@ -685,14 +691,14 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="6">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
@@ -700,21 +706,21 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <f t="shared" si="1"/>
         <v>5464.8</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="8">
         <v>44807</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>10</v>
       </c>
       <c r="J5" s="4">
@@ -727,14 +733,14 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="6">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
@@ -742,21 +748,21 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <f t="shared" si="1"/>
         <v>5425.2</v>
       </c>
-      <c r="F6" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="8">
         <v>44808</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>10</v>
       </c>
       <c r="J6" s="4">
@@ -769,14 +775,14 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="6">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
@@ -784,21 +790,21 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <f t="shared" si="1"/>
         <v>5385.6</v>
       </c>
-      <c r="F7" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="8">
         <v>44809</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="5">
         <v>10</v>
       </c>
       <c r="J7" s="4">
@@ -811,14 +817,14 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="6">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
@@ -826,21 +832,21 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
         <v>5346</v>
       </c>
-      <c r="F8" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="8">
         <v>44810</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="5">
         <v>10</v>
       </c>
       <c r="J8" s="4">
@@ -853,14 +859,14 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="6">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
@@ -868,21 +874,21 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <f t="shared" si="1"/>
         <v>5306.4000000000005</v>
       </c>
-      <c r="F9" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="8">
         <v>44811</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>0</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>10</v>
       </c>
       <c r="J9" s="4">
@@ -895,14 +901,14 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="6">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
@@ -910,21 +916,21 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <f t="shared" si="1"/>
         <v>5266.8</v>
       </c>
-      <c r="F10" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="8">
         <v>44812</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="5">
         <v>10</v>
       </c>
       <c r="J10" s="4">
@@ -937,14 +943,14 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
@@ -952,21 +958,21 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <f t="shared" si="1"/>
         <v>5227.2</v>
       </c>
-      <c r="F11" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="6">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="F11" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="8">
+        <v>44813</v>
+      </c>
+      <c r="H11" s="5">
         <v>0</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>10</v>
       </c>
       <c r="J11" s="4">
@@ -979,14 +985,14 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
@@ -994,21 +1000,21 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <f t="shared" si="1"/>
         <v>5187.6000000000004</v>
       </c>
-      <c r="F12" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="F12" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="8">
         <v>44814</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>10</v>
       </c>
       <c r="J12" s="4">
@@ -1021,14 +1027,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
@@ -1036,22 +1042,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <f t="shared" si="1"/>
         <v>5148</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="8">
         <v>44815</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <f>H12+1</f>
         <v>2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <v>10</v>
       </c>
       <c r="J13" s="4">
@@ -1064,14 +1070,14 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="6">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
@@ -1079,22 +1085,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <f t="shared" si="1"/>
         <v>5108.4000000000005</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="8">
         <v>44816</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <f t="shared" ref="H14:H38" si="7">H13+1</f>
         <v>3</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="5">
         <v>10</v>
       </c>
       <c r="J14" s="4">
@@ -1107,14 +1113,14 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="6">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
@@ -1122,22 +1128,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <f t="shared" si="1"/>
         <v>5068.8</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="8">
         <v>44817</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <v>10</v>
       </c>
       <c r="J15" s="4">
@@ -1150,14 +1156,14 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="6">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
@@ -1165,22 +1171,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <f t="shared" si="1"/>
         <v>5029.2</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="8">
         <v>44818</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <v>10</v>
       </c>
       <c r="J16" s="4">
@@ -1193,14 +1199,14 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
@@ -1208,22 +1214,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <f t="shared" si="1"/>
         <v>4989.6000000000004</v>
       </c>
-      <c r="F17" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="F17" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="8">
         <v>44819</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <v>10</v>
       </c>
       <c r="J17" s="4">
@@ -1236,14 +1242,14 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="6">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
@@ -1251,22 +1257,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <f t="shared" si="1"/>
         <v>4950</v>
       </c>
-      <c r="F18" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="F18" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="8">
         <v>44820</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <v>10</v>
       </c>
       <c r="J18" s="4">
@@ -1279,14 +1285,14 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
@@ -1294,22 +1300,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <f t="shared" si="1"/>
         <v>4910.4000000000005</v>
       </c>
-      <c r="F19" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="F19" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="8">
         <v>44821</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <v>10</v>
       </c>
       <c r="J19" s="4">
@@ -1322,14 +1328,14 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="6">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
@@ -1337,22 +1343,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <f t="shared" si="1"/>
         <v>4870.8</v>
       </c>
-      <c r="F20" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F20" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="8">
         <v>44822</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="5">
         <v>10</v>
       </c>
       <c r="J20" s="4">
@@ -1365,14 +1371,14 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
@@ -1380,22 +1386,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <f t="shared" si="1"/>
         <v>4831.2</v>
       </c>
-      <c r="F21" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="F21" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="8">
         <v>44823</v>
       </c>
-      <c r="H21" s="4">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H21" s="5">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="5">
         <v>10</v>
       </c>
       <c r="J21" s="4">
@@ -1408,14 +1414,14 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="6">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
@@ -1423,22 +1429,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="5">
         <f t="shared" si="1"/>
         <v>4791.6000000000004</v>
       </c>
-      <c r="F22" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F22" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="8">
         <v>44824</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="5">
         <v>10</v>
       </c>
       <c r="J22" s="4">
@@ -1451,14 +1457,14 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
@@ -1466,22 +1472,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="5">
         <f t="shared" si="1"/>
         <v>4752</v>
       </c>
-      <c r="F23" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="F23" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="8">
         <v>44825</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="5">
         <v>10</v>
       </c>
       <c r="J23" s="4">
@@ -1494,14 +1500,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="6">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
@@ -1509,22 +1515,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <f t="shared" si="1"/>
         <v>4712.4000000000005</v>
       </c>
-      <c r="F24" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="F24" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="8">
         <v>44826</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="5">
         <v>10</v>
       </c>
       <c r="J24" s="4">
@@ -1537,14 +1543,14 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
@@ -1552,22 +1558,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <f t="shared" si="1"/>
         <v>4672.8</v>
       </c>
-      <c r="F25" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="F25" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="8">
         <v>44827</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="5">
         <v>10</v>
       </c>
       <c r="J25" s="4">
@@ -1580,14 +1586,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="6">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
@@ -1595,22 +1601,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="5">
         <f t="shared" si="1"/>
         <v>4633.2</v>
       </c>
-      <c r="F26" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="F26" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="8">
         <v>44828</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="5">
         <v>10</v>
       </c>
       <c r="J26" s="4">
@@ -1623,14 +1629,14 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="5">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
@@ -1638,22 +1644,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="5">
         <f t="shared" si="1"/>
         <v>4593.6000000000004</v>
       </c>
-      <c r="F27" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="F27" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="8">
         <v>44829</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="5">
         <v>10</v>
       </c>
       <c r="J27" s="4">
@@ -1666,14 +1672,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="6">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
@@ -1681,22 +1687,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
         <f t="shared" si="1"/>
         <v>4554</v>
       </c>
-      <c r="F28" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="F28" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="8">
         <v>44830</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="5">
         <v>10</v>
       </c>
       <c r="J28" s="4">
@@ -1709,14 +1715,14 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="6">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
@@ -1724,22 +1730,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
         <f t="shared" si="1"/>
         <v>4514.4000000000005</v>
       </c>
-      <c r="F29" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="F29" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="8">
         <v>44831</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="5">
         <v>10</v>
       </c>
       <c r="J29" s="4">
@@ -1752,14 +1758,14 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="6">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
@@ -1767,22 +1773,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>4474.8</v>
       </c>
-      <c r="F30" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="F30" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="8">
         <v>44832</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <f t="shared" si="7"/>
         <v>19</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="5">
         <v>10</v>
       </c>
       <c r="J30" s="4">
@@ -1795,14 +1801,14 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="6">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
@@ -1810,22 +1816,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <f t="shared" si="1"/>
         <v>4435.2</v>
       </c>
-      <c r="F31" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="6">
+      <c r="F31" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="8">
         <v>44833</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <f t="shared" si="7"/>
         <v>20</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="5">
         <v>10</v>
       </c>
       <c r="J31" s="4">
@@ -1838,14 +1844,14 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="6">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
@@ -1853,22 +1859,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <f t="shared" si="1"/>
         <v>4395.6000000000004</v>
       </c>
-      <c r="F32" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="F32" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="8">
         <v>44834</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="5">
         <v>10</v>
       </c>
       <c r="J32" s="4">
@@ -1881,14 +1887,14 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="6">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
@@ -1896,22 +1902,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="5">
         <f t="shared" si="1"/>
         <v>4356</v>
       </c>
-      <c r="F33" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="F33" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="8">
         <v>44835</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="5">
         <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="5">
         <v>10</v>
       </c>
       <c r="J33" s="4">
@@ -1924,14 +1930,14 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="6">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
@@ -1939,22 +1945,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <f t="shared" si="1"/>
         <v>4316.4000000000005</v>
       </c>
-      <c r="F34" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="6">
+      <c r="F34" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="8">
         <v>44836</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="5">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="5">
         <v>10</v>
       </c>
       <c r="J34" s="4">
@@ -1967,14 +1973,14 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="6">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
@@ -1982,22 +1988,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="5">
         <f t="shared" si="1"/>
         <v>4276.8</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="F35" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="8">
         <v>44837</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="5">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="5">
         <v>10</v>
       </c>
       <c r="J35" s="4">
@@ -2010,14 +2016,14 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="6">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
@@ -2025,22 +2031,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
         <f t="shared" si="1"/>
         <v>4237.2</v>
       </c>
-      <c r="F36" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="F36" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="8">
         <v>44838</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="5">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="5">
         <v>10</v>
       </c>
       <c r="J36" s="4">
@@ -2053,14 +2059,14 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="6">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="5">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
@@ -2068,22 +2074,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="5">
         <f t="shared" si="1"/>
         <v>4197.6000000000004</v>
       </c>
-      <c r="F37" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="F37" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="8">
         <v>44839</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="5">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="5">
         <v>10</v>
       </c>
       <c r="J37" s="4">
@@ -2096,14 +2102,14 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="6">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="5">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
@@ -2111,22 +2117,22 @@
         <f t="shared" si="0"/>
         <v>79.2</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="5">
         <f t="shared" si="1"/>
         <v>4158</v>
       </c>
-      <c r="F38" s="6">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="F38" s="8">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="8">
         <v>44840</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="5">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="5">
         <v>10</v>
       </c>
       <c r="J38" s="4">

--- a/LR3/table_1_72.xlsx
+++ b/LR3/table_1_72.xlsx
@@ -47,9 +47,6 @@
     <t>Итого</t>
   </si>
   <si>
-    <t xml:space="preserve">Арсланов </t>
-  </si>
-  <si>
     <t>общая сумма</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Тариф руб./кв.м</t>
   </si>
   <si>
-    <t>Аллаяров</t>
-  </si>
-  <si>
     <t xml:space="preserve">Аминов </t>
   </si>
   <si>
@@ -125,12 +119,6 @@
     <t>Миронов</t>
   </si>
   <si>
-    <t>Орлов</t>
-  </si>
-  <si>
-    <t>Раин</t>
-  </si>
-  <si>
     <t>Редькин</t>
   </si>
   <si>
@@ -161,9 +149,6 @@
     <t>Шайхутдинов</t>
   </si>
   <si>
-    <t>Якубов</t>
-  </si>
-  <si>
     <t>Алимжанов</t>
   </si>
   <si>
@@ -177,6 +162,21 @@
   </si>
   <si>
     <t>Черёмухин</t>
+  </si>
+  <si>
+    <t>Эр</t>
+  </si>
+  <si>
+    <t>Ахм</t>
+  </si>
+  <si>
+    <t>Фат</t>
+  </si>
+  <si>
+    <t>Тиг</t>
+  </si>
+  <si>
+    <t>Оск</t>
   </si>
 </sst>
 </file>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -585,13 +585,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>2</v>
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -658,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -700,7 +700,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <f>C4-0.5</f>
@@ -742,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C38" si="6">C5-0.5</f>
@@ -784,7 +784,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="6"/>
@@ -826,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="6"/>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="6"/>
@@ -910,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="6"/>
@@ -952,7 +952,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="6"/>
@@ -994,7 +994,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="6"/>
@@ -1036,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="6"/>
@@ -1078,7 +1078,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="6"/>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="6"/>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="6"/>
@@ -1204,7 +1204,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="6"/>
@@ -1246,7 +1246,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="6"/>
@@ -1288,7 +1288,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="6"/>
@@ -1330,7 +1330,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="6"/>
@@ -1372,7 +1372,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="6"/>
@@ -1414,7 +1414,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="6"/>
@@ -1456,7 +1456,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="6"/>
@@ -1498,7 +1498,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="6"/>
@@ -1540,7 +1540,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="6"/>
@@ -1582,7 +1582,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="6"/>
@@ -1624,7 +1624,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="6"/>
@@ -1666,7 +1666,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="6"/>
@@ -1708,7 +1708,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="6"/>
@@ -1750,7 +1750,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="6"/>
@@ -1792,7 +1792,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="6"/>
@@ -1834,7 +1834,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="6"/>
@@ -1876,7 +1876,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="6"/>
@@ -1918,7 +1918,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="6"/>
@@ -1960,7 +1960,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="6"/>
@@ -2002,7 +2002,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="6"/>
@@ -2044,7 +2044,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="6"/>
@@ -2086,7 +2086,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="6"/>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1">
         <f>ROUNDDOWN(SUM(K3:K38),36)</f>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(E3:E38)</f>
